--- a/Code/Summary Statistics Table_Figure_2.xlsx
+++ b/Code/Summary Statistics Table_Figure_2.xlsx
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.17</v>
+        <v>36.22</v>
       </c>
       <c r="C3" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990</v>
+        <v>99</v>
       </c>
       <c r="F3" t="n">
-        <v>134.64</v>
+        <v>13.46</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.21</v>
+        <v>36.22</v>
       </c>
       <c r="C4" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>990</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>134.67</v>
+        <v>13.47</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.94</v>
+        <v>39.38</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>9.9</v>
+        <v>99</v>
       </c>
       <c r="F29" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>393.8</v>
+        <v>39.38</v>
       </c>
       <c r="C31" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>990</v>
+        <v>99</v>
       </c>
       <c r="F31" t="n">
-        <v>57.9</v>
+        <v>5.79</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>990</v>
+        <v>99</v>
       </c>
       <c r="F32" t="n">
-        <v>48.32</v>
+        <v>4.83</v>
       </c>
       <c r="G32" t="n">
         <v>7.8</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>36.97</v>
+        <v>3.7</v>
       </c>
       <c r="G33" t="n">
         <v>7.8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>980</v>
+        <v>98</v>
       </c>
       <c r="F34" t="n">
-        <v>30.45</v>
+        <v>3.05</v>
       </c>
       <c r="G34" t="n">
         <v>7.8</v>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.45</v>
+        <v>1.64</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>980</v>
+        <v>98</v>
       </c>
       <c r="F35" t="n">
-        <v>47.08</v>
+        <v>4.71</v>
       </c>
       <c r="G35" t="n">
         <v>7.8</v>
